--- a/BackTest/2019-10-22 BackTest PPT.xlsx
+++ b/BackTest/2019-10-22 BackTest PPT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>23</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-36.36363636363637</v>
+      </c>
       <c r="L12" t="n">
         <v>493.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>23</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>493.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>23</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-26.31578947368421</v>
+      </c>
       <c r="L14" t="n">
         <v>492.4</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>31</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>15.38461538461539</v>
+      </c>
       <c r="L15" t="n">
         <v>492.7</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>31</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
       <c r="L16" t="n">
         <v>493.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>37</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>36.36363636363637</v>
+      </c>
       <c r="L17" t="n">
         <v>493</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>42</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>494.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>49</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>3.703703703703703</v>
+      </c>
       <c r="L19" t="n">
         <v>494.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>55</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>21.21212121212121</v>
+      </c>
       <c r="L20" t="n">
         <v>495</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>59</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>5.555555555555555</v>
+      </c>
       <c r="L21" t="n">
         <v>495.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>60</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>2.702702702702703</v>
+      </c>
       <c r="L22" t="n">
         <v>495.4</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>-11.86440677966102</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L23" t="n">
         <v>495.5</v>
@@ -1466,7 +1488,7 @@
         <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>-10.3448275862069</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L24" t="n">
         <v>495.6</v>
@@ -1515,7 +1537,7 @@
         <v>63</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.86440677966102</v>
+        <v>-31.25</v>
       </c>
       <c r="L25" t="n">
         <v>494.6</v>
@@ -1564,7 +1586,7 @@
         <v>65</v>
       </c>
       <c r="K26" t="n">
-        <v>-6.666666666666667</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L26" t="n">
         <v>493.8</v>
@@ -1613,7 +1635,7 @@
         <v>66</v>
       </c>
       <c r="K27" t="n">
-        <v>-3.333333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L27" t="n">
         <v>493.7</v>
@@ -1662,7 +1684,7 @@
         <v>67</v>
       </c>
       <c r="K28" t="n">
-        <v>11.53846153846154</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>493</v>
@@ -1711,7 +1733,7 @@
         <v>70</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.122448979591836</v>
+        <v>-60</v>
       </c>
       <c r="L29" t="n">
         <v>492.7</v>
@@ -1760,7 +1782,7 @@
         <v>73</v>
       </c>
       <c r="K30" t="n">
-        <v>1.96078431372549</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L30" t="n">
         <v>492.1</v>
@@ -1809,7 +1831,7 @@
         <v>74</v>
       </c>
       <c r="K31" t="n">
-        <v>3.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>492</v>
@@ -1860,7 +1882,7 @@
         <v>75</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L32" t="n">
         <v>491.9</v>
@@ -1911,7 +1933,7 @@
         <v>76</v>
       </c>
       <c r="K33" t="n">
-        <v>1.886792452830189</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>491.9</v>
@@ -1962,7 +1984,7 @@
         <v>76</v>
       </c>
       <c r="K34" t="n">
-        <v>1.886792452830189</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L34" t="n">
         <v>491.9</v>
@@ -2013,7 +2035,7 @@
         <v>83</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L35" t="n">
         <v>492.9</v>
@@ -2064,7 +2086,7 @@
         <v>83</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L36" t="n">
         <v>493.7</v>
@@ -2115,7 +2137,7 @@
         <v>83</v>
       </c>
       <c r="K37" t="n">
-        <v>13.04347826086956</v>
+        <v>50</v>
       </c>
       <c r="L37" t="n">
         <v>494.4</v>
@@ -2166,7 +2188,7 @@
         <v>83</v>
       </c>
       <c r="K38" t="n">
-        <v>2.439024390243902</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L38" t="n">
         <v>495.2</v>
@@ -2217,7 +2239,7 @@
         <v>86</v>
       </c>
       <c r="K39" t="n">
-        <v>13.51351351351351</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L39" t="n">
         <v>496</v>
@@ -2268,7 +2290,7 @@
         <v>87</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L40" t="n">
         <v>496.6</v>
@@ -2319,7 +2341,7 @@
         <v>88</v>
       </c>
       <c r="K41" t="n">
-        <v>10.3448275862069</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L41" t="n">
         <v>497</v>
@@ -2370,7 +2392,7 @@
         <v>88</v>
       </c>
       <c r="K42" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>497.5</v>
@@ -2421,7 +2443,7 @@
         <v>89</v>
       </c>
       <c r="K43" t="n">
-        <v>17.24137931034483</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L43" t="n">
         <v>498</v>
@@ -2472,7 +2494,7 @@
         <v>91</v>
       </c>
       <c r="K44" t="n">
-        <v>9.67741935483871</v>
+        <v>-50</v>
       </c>
       <c r="L44" t="n">
         <v>498.3</v>
@@ -2523,7 +2545,7 @@
         <v>92</v>
       </c>
       <c r="K45" t="n">
-        <v>17.24137931034483</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L45" t="n">
         <v>497.8</v>
@@ -2574,7 +2596,7 @@
         <v>94</v>
       </c>
       <c r="K46" t="n">
-        <v>3.448275862068965</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L46" t="n">
         <v>497.1</v>
@@ -2625,7 +2647,7 @@
         <v>95</v>
       </c>
       <c r="K47" t="n">
-        <v>3.448275862068965</v>
+        <v>-50</v>
       </c>
       <c r="L47" t="n">
         <v>496.5</v>
@@ -2676,7 +2698,7 @@
         <v>106</v>
       </c>
       <c r="K48" t="n">
-        <v>33.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="L48" t="n">
         <v>497</v>
@@ -2727,7 +2749,7 @@
         <v>112</v>
       </c>
       <c r="K49" t="n">
-        <v>23.80952380952381</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
         <v>497.2</v>
@@ -2778,7 +2800,7 @@
         <v>115</v>
       </c>
       <c r="K50" t="n">
-        <v>9.523809523809524</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L50" t="n">
         <v>497</v>
@@ -2829,7 +2851,7 @@
         <v>115</v>
       </c>
       <c r="K51" t="n">
-        <v>7.317073170731707</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L51" t="n">
         <v>496.9</v>
@@ -2880,7 +2902,7 @@
         <v>116</v>
       </c>
       <c r="K52" t="n">
-        <v>12.19512195121951</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L52" t="n">
         <v>496.9</v>
@@ -2931,7 +2953,7 @@
         <v>119</v>
       </c>
       <c r="K53" t="n">
-        <v>16.27906976744186</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L53" t="n">
         <v>497.1</v>
@@ -2982,7 +3004,7 @@
         <v>122</v>
       </c>
       <c r="K54" t="n">
-        <v>8.695652173913043</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L54" t="n">
         <v>497.2</v>
@@ -3033,7 +3055,7 @@
         <v>123</v>
       </c>
       <c r="K55" t="n">
-        <v>-5</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L55" t="n">
         <v>497.5</v>
@@ -3084,7 +3106,7 @@
         <v>129</v>
       </c>
       <c r="K56" t="n">
-        <v>8.695652173913043</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L56" t="n">
         <v>498.6</v>
@@ -3135,7 +3157,7 @@
         <v>132</v>
       </c>
       <c r="K57" t="n">
-        <v>2.040816326530612</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L57" t="n">
         <v>499.3</v>
@@ -3186,7 +3208,7 @@
         <v>132</v>
       </c>
       <c r="K58" t="n">
-        <v>2.040816326530612</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
         <v>498.9</v>
@@ -3237,7 +3259,7 @@
         <v>134</v>
       </c>
       <c r="K59" t="n">
-        <v>12.5</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L59" t="n">
         <v>499.3</v>
@@ -3288,7 +3310,7 @@
         <v>138</v>
       </c>
       <c r="K60" t="n">
-        <v>1.96078431372549</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L60" t="n">
         <v>499.6</v>
@@ -3339,7 +3361,7 @@
         <v>138</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L61" t="n">
         <v>499.9</v>
@@ -3390,7 +3412,7 @@
         <v>139</v>
       </c>
       <c r="K62" t="n">
-        <v>1.96078431372549</v>
+        <v>-10</v>
       </c>
       <c r="L62" t="n">
         <v>500</v>
@@ -3441,7 +3463,7 @@
         <v>140</v>
       </c>
       <c r="K63" t="n">
-        <v>1.96078431372549</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L63" t="n">
         <v>499.9</v>
@@ -3492,7 +3514,7 @@
         <v>141</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>500</v>
@@ -3543,7 +3565,7 @@
         <v>141</v>
       </c>
       <c r="K65" t="n">
-        <v>6.122448979591836</v>
+        <v>-50</v>
       </c>
       <c r="L65" t="n">
         <v>500</v>
@@ -3594,7 +3616,7 @@
         <v>142</v>
       </c>
       <c r="K66" t="n">
-        <v>8.333333333333332</v>
+        <v>-40</v>
       </c>
       <c r="L66" t="n">
         <v>499.3</v>
@@ -3645,7 +3667,7 @@
         <v>142</v>
       </c>
       <c r="K67" t="n">
-        <v>6.382978723404255</v>
+        <v>-40</v>
       </c>
       <c r="L67" t="n">
         <v>498.9</v>
@@ -3696,7 +3718,7 @@
         <v>142</v>
       </c>
       <c r="K68" t="n">
-        <v>-22.22222222222222</v>
+        <v>-75</v>
       </c>
       <c r="L68" t="n">
         <v>498.5</v>
@@ -3747,7 +3769,7 @@
         <v>142</v>
       </c>
       <c r="K69" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L69" t="n">
         <v>497.9</v>
@@ -3798,7 +3820,7 @@
         <v>145</v>
       </c>
       <c r="K70" t="n">
-        <v>13.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L70" t="n">
         <v>498</v>
@@ -3849,7 +3871,7 @@
         <v>145</v>
       </c>
       <c r="K71" t="n">
-        <v>13.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>498.1</v>
@@ -3900,7 +3922,7 @@
         <v>149</v>
       </c>
       <c r="K72" t="n">
-        <v>21.21212121212121</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L72" t="n">
         <v>498.7</v>
@@ -3951,7 +3973,7 @@
         <v>153</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L73" t="n">
         <v>498.8</v>
@@ -4002,7 +4024,7 @@
         <v>154</v>
       </c>
       <c r="K74" t="n">
-        <v>12.5</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L74" t="n">
         <v>499.1</v>
@@ -4053,7 +4075,7 @@
         <v>155</v>
       </c>
       <c r="K75" t="n">
-        <v>6.25</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L75" t="n">
         <v>499.3</v>
@@ -4104,7 +4126,7 @@
         <v>158</v>
       </c>
       <c r="K76" t="n">
-        <v>-3.448275862068965</v>
+        <v>37.5</v>
       </c>
       <c r="L76" t="n">
         <v>499.9</v>
@@ -4155,7 +4177,7 @@
         <v>160</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L77" t="n">
         <v>500.3</v>
@@ -4206,7 +4228,7 @@
         <v>163</v>
       </c>
       <c r="K78" t="n">
-        <v>9.67741935483871</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>501</v>
@@ -4257,7 +4279,7 @@
         <v>165</v>
       </c>
       <c r="K79" t="n">
-        <v>9.67741935483871</v>
+        <v>30</v>
       </c>
       <c r="L79" t="n">
         <v>501.9</v>
@@ -4308,7 +4330,7 @@
         <v>166</v>
       </c>
       <c r="K80" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>502.6</v>
@@ -4359,7 +4381,7 @@
         <v>166</v>
       </c>
       <c r="K81" t="n">
-        <v>28.57142857142857</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L81" t="n">
         <v>503.3</v>
@@ -4410,7 +4432,7 @@
         <v>167</v>
       </c>
       <c r="K82" t="n">
-        <v>35.71428571428572</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L82" t="n">
         <v>503.7</v>
@@ -4461,7 +4483,7 @@
         <v>169</v>
       </c>
       <c r="K83" t="n">
-        <v>37.93103448275862</v>
+        <v>60</v>
       </c>
       <c r="L83" t="n">
         <v>504.7</v>
@@ -4512,7 +4534,7 @@
         <v>173</v>
       </c>
       <c r="K84" t="n">
-        <v>50</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L84" t="n">
         <v>506</v>
@@ -4563,7 +4585,7 @@
         <v>175</v>
       </c>
       <c r="K85" t="n">
-        <v>52.94117647058824</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L85" t="n">
         <v>507.6</v>
@@ -4614,7 +4636,7 @@
         <v>176</v>
       </c>
       <c r="K86" t="n">
-        <v>58.82352941176471</v>
+        <v>100</v>
       </c>
       <c r="L86" t="n">
         <v>509</v>
@@ -4665,7 +4687,7 @@
         <v>178</v>
       </c>
       <c r="K87" t="n">
-        <v>50</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>510.4</v>
@@ -4716,7 +4738,7 @@
         <v>179</v>
       </c>
       <c r="K88" t="n">
-        <v>45.94594594594595</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L88" t="n">
         <v>511.4</v>
@@ -4767,7 +4789,7 @@
         <v>179</v>
       </c>
       <c r="K89" t="n">
-        <v>45.94594594594595</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L89" t="n">
         <v>512.2</v>
@@ -4818,7 +4840,7 @@
         <v>179</v>
       </c>
       <c r="K90" t="n">
-        <v>41.17647058823529</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L90" t="n">
         <v>512.9</v>
@@ -4869,7 +4891,7 @@
         <v>182</v>
       </c>
       <c r="K91" t="n">
-        <v>45.94594594594595</v>
+        <v>60</v>
       </c>
       <c r="L91" t="n">
         <v>513.9</v>
@@ -4920,7 +4942,7 @@
         <v>186</v>
       </c>
       <c r="K92" t="n">
-        <v>45.94594594594595</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L92" t="n">
         <v>515.2</v>
@@ -4971,7 +4993,7 @@
         <v>186</v>
       </c>
       <c r="K93" t="n">
-        <v>63.63636363636363</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L93" t="n">
         <v>516.3</v>
@@ -5022,7 +5044,7 @@
         <v>187</v>
       </c>
       <c r="K94" t="n">
-        <v>57.57575757575758</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>516.9</v>
@@ -5073,7 +5095,7 @@
         <v>190</v>
       </c>
       <c r="K95" t="n">
-        <v>48.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>517</v>
@@ -5124,7 +5146,7 @@
         <v>190</v>
       </c>
       <c r="K96" t="n">
-        <v>43.75</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L96" t="n">
         <v>517</v>
@@ -5175,7 +5197,7 @@
         <v>190</v>
       </c>
       <c r="K97" t="n">
-        <v>53.33333333333334</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L97" t="n">
         <v>517.2</v>
@@ -5226,7 +5248,7 @@
         <v>195</v>
       </c>
       <c r="K98" t="n">
-        <v>25</v>
+        <v>-12.5</v>
       </c>
       <c r="L98" t="n">
         <v>517</v>
@@ -5277,7 +5299,7 @@
         <v>196</v>
       </c>
       <c r="K99" t="n">
-        <v>22.58064516129032</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L99" t="n">
         <v>516.9</v>
@@ -5328,7 +5350,7 @@
         <v>197</v>
       </c>
       <c r="K100" t="n">
-        <v>16.12903225806452</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>516.7</v>
@@ -5379,7 +5401,7 @@
         <v>203</v>
       </c>
       <c r="K101" t="n">
-        <v>29.72972972972973</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L101" t="n">
         <v>516.8</v>
@@ -5430,7 +5452,7 @@
         <v>208</v>
       </c>
       <c r="K102" t="n">
-        <v>12.19512195121951</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L102" t="n">
         <v>516</v>
@@ -5481,7 +5503,7 @@
         <v>210</v>
       </c>
       <c r="K103" t="n">
-        <v>12.19512195121951</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L103" t="n">
         <v>515.4</v>
@@ -5532,7 +5554,7 @@
         <v>211</v>
       </c>
       <c r="K104" t="n">
-        <v>5.263157894736842</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L104" t="n">
         <v>515</v>
@@ -5583,7 +5605,7 @@
         <v>218</v>
       </c>
       <c r="K105" t="n">
-        <v>-16.27906976744186</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L105" t="n">
         <v>514.2</v>
@@ -5634,7 +5656,7 @@
         <v>219</v>
       </c>
       <c r="K106" t="n">
-        <v>-16.27906976744186</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L106" t="n">
         <v>513.5</v>
@@ -5685,7 +5707,7 @@
         <v>219</v>
       </c>
       <c r="K107" t="n">
-        <v>-12.19512195121951</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L107" t="n">
         <v>512.8</v>
@@ -5736,7 +5758,7 @@
         <v>220</v>
       </c>
       <c r="K108" t="n">
-        <v>-7.317073170731707</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L108" t="n">
         <v>512.7</v>
@@ -5787,7 +5809,7 @@
         <v>221</v>
       </c>
       <c r="K109" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>512.6</v>
@@ -5838,7 +5860,7 @@
         <v>225</v>
       </c>
       <c r="K110" t="n">
-        <v>4.347826086956522</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L110" t="n">
         <v>513</v>
@@ -5889,7 +5911,7 @@
         <v>230</v>
       </c>
       <c r="K111" t="n">
-        <v>8.333333333333332</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L111" t="n">
         <v>513.3</v>
@@ -5940,7 +5962,7 @@
         <v>239</v>
       </c>
       <c r="K112" t="n">
-        <v>-16.9811320754717</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L112" t="n">
         <v>513.2</v>
@@ -5991,7 +6013,7 @@
         <v>245</v>
       </c>
       <c r="K113" t="n">
-        <v>-5.084745762711865</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L113" t="n">
         <v>513.5</v>
@@ -6042,7 +6064,7 @@
         <v>250</v>
       </c>
       <c r="K114" t="n">
-        <v>-11.11111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="L114" t="n">
         <v>513.2</v>
@@ -6093,7 +6115,7 @@
         <v>252</v>
       </c>
       <c r="K115" t="n">
-        <v>-9.67741935483871</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L115" t="n">
         <v>513.4</v>
@@ -6144,7 +6166,7 @@
         <v>252</v>
       </c>
       <c r="K116" t="n">
-        <v>-9.67741935483871</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L116" t="n">
         <v>513.5</v>
@@ -6195,7 +6217,7 @@
         <v>254</v>
       </c>
       <c r="K117" t="n">
-        <v>-6.25</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L117" t="n">
         <v>513.8</v>
@@ -6246,7 +6268,7 @@
         <v>260</v>
       </c>
       <c r="K118" t="n">
-        <v>10.76923076923077</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L118" t="n">
         <v>514.6</v>
@@ -6297,7 +6319,7 @@
         <v>264</v>
       </c>
       <c r="K119" t="n">
-        <v>14.70588235294118</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L119" t="n">
         <v>515.7</v>
@@ -6348,7 +6370,7 @@
         <v>265</v>
       </c>
       <c r="K120" t="n">
-        <v>14.70588235294118</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L120" t="n">
         <v>516.3</v>
@@ -6399,7 +6421,7 @@
         <v>265</v>
       </c>
       <c r="K121" t="n">
-        <v>6.451612903225806</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L121" t="n">
         <v>516.4</v>
@@ -6450,7 +6472,7 @@
         <v>267</v>
       </c>
       <c r="K122" t="n">
-        <v>11.86440677966102</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L122" t="n">
         <v>517.2</v>
@@ -6501,7 +6523,7 @@
         <v>270</v>
       </c>
       <c r="K123" t="n">
-        <v>13.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L123" t="n">
         <v>517.7</v>
@@ -6552,7 +6574,7 @@
         <v>270</v>
       </c>
       <c r="K124" t="n">
-        <v>11.86440677966102</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L124" t="n">
         <v>518.7</v>
@@ -6603,7 +6625,7 @@
         <v>271</v>
       </c>
       <c r="K125" t="n">
-        <v>28.30188679245283</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L125" t="n">
         <v>520</v>
@@ -6654,7 +6676,7 @@
         <v>280</v>
       </c>
       <c r="K126" t="n">
-        <v>8.196721311475409</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L126" t="n">
         <v>520.4</v>
@@ -6705,7 +6727,7 @@
         <v>286</v>
       </c>
       <c r="K127" t="n">
-        <v>16.41791044776119</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L127" t="n">
         <v>521.2</v>
@@ -6756,7 +6778,7 @@
         <v>286</v>
       </c>
       <c r="K128" t="n">
-        <v>15.15151515151515</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L128" t="n">
         <v>521.4</v>
@@ -6807,7 +6829,7 @@
         <v>286</v>
       </c>
       <c r="K129" t="n">
-        <v>13.84615384615385</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L129" t="n">
         <v>521.2</v>
@@ -6858,7 +6880,7 @@
         <v>287</v>
       </c>
       <c r="K130" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>521.2</v>
@@ -6909,7 +6931,7 @@
         <v>291</v>
       </c>
       <c r="K131" t="n">
-        <v>-4.918032786885246</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L131" t="n">
         <v>520.8</v>
@@ -6960,7 +6982,7 @@
         <v>292</v>
       </c>
       <c r="K132" t="n">
-        <v>9.433962264150944</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L132" t="n">
         <v>520.5</v>
@@ -7011,7 +7033,7 @@
         <v>292</v>
       </c>
       <c r="K133" t="n">
-        <v>-2.127659574468085</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L133" t="n">
         <v>519.9</v>
@@ -7062,7 +7084,7 @@
         <v>296</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="L134" t="n">
         <v>518.9</v>
@@ -7113,7 +7135,7 @@
         <v>296</v>
       </c>
       <c r="K135" t="n">
-        <v>4.545454545454546</v>
+        <v>-12.5</v>
       </c>
       <c r="L135" t="n">
         <v>517.8</v>
@@ -7164,7 +7186,7 @@
         <v>297</v>
       </c>
       <c r="K136" t="n">
-        <v>2.222222222222222</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L136" t="n">
         <v>517.5</v>
@@ -7215,7 +7237,7 @@
         <v>301</v>
       </c>
       <c r="K137" t="n">
-        <v>6.382978723404255</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L137" t="n">
         <v>517</v>
@@ -7266,7 +7288,7 @@
         <v>305</v>
       </c>
       <c r="K138" t="n">
-        <v>-15.55555555555556</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L138" t="n">
         <v>516.1</v>
@@ -7317,7 +7339,7 @@
         <v>308</v>
       </c>
       <c r="K139" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>515.5</v>
@@ -7368,7 +7390,7 @@
         <v>309</v>
       </c>
       <c r="K140" t="n">
-        <v>-18.18181818181818</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L140" t="n">
         <v>514.7</v>
@@ -7419,7 +7441,7 @@
         <v>311</v>
       </c>
       <c r="K141" t="n">
-        <v>-13.04347826086956</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L141" t="n">
         <v>514.5</v>
@@ -7470,7 +7492,7 @@
         <v>315</v>
       </c>
       <c r="K142" t="n">
-        <v>-16.66666666666666</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L142" t="n">
         <v>514</v>
@@ -7521,7 +7543,7 @@
         <v>317</v>
       </c>
       <c r="K143" t="n">
-        <v>-27.65957446808511</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L143" t="n">
         <v>513.3</v>
@@ -7572,7 +7594,7 @@
         <v>317</v>
       </c>
       <c r="K144" t="n">
-        <v>-27.65957446808511</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L144" t="n">
         <v>513</v>
@@ -7623,7 +7645,7 @@
         <v>317</v>
       </c>
       <c r="K145" t="n">
-        <v>-30.43478260869566</v>
+        <v>-10</v>
       </c>
       <c r="L145" t="n">
         <v>512.7</v>
@@ -7674,7 +7696,7 @@
         <v>322</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L146" t="n">
         <v>513</v>
@@ -7725,7 +7747,7 @@
         <v>323</v>
       </c>
       <c r="K147" t="n">
-        <v>-18.91891891891892</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L147" t="n">
         <v>512.8</v>
@@ -7776,7 +7798,7 @@
         <v>326</v>
       </c>
       <c r="K148" t="n">
-        <v>-25</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L148" t="n">
         <v>512.7</v>
@@ -7827,7 +7849,7 @@
         <v>326</v>
       </c>
       <c r="K149" t="n">
-        <v>-25</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L149" t="n">
         <v>512.3</v>
@@ -7878,7 +7900,7 @@
         <v>331</v>
       </c>
       <c r="K150" t="n">
-        <v>-13.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>512.5</v>
@@ -7929,7 +7951,7 @@
         <v>337</v>
       </c>
       <c r="K151" t="n">
-        <v>8.695652173913043</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L151" t="n">
         <v>513.1</v>
@@ -7980,7 +8002,7 @@
         <v>344</v>
       </c>
       <c r="K152" t="n">
-        <v>-3.846153846153846</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L152" t="n">
         <v>513.4</v>
@@ -8031,7 +8053,7 @@
         <v>344</v>
       </c>
       <c r="K153" t="n">
-        <v>-3.846153846153846</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L153" t="n">
         <v>513.9</v>
@@ -8082,7 +8104,7 @@
         <v>349</v>
       </c>
       <c r="K154" t="n">
-        <v>-5.660377358490567</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>513.9</v>
@@ -8133,7 +8155,7 @@
         <v>350</v>
       </c>
       <c r="K155" t="n">
-        <v>-7.407407407407407</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L155" t="n">
         <v>513.8</v>
@@ -8184,7 +8206,7 @@
         <v>356</v>
       </c>
       <c r="K156" t="n">
-        <v>-15.25423728813559</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>512.6</v>
@@ -8235,7 +8257,7 @@
         <v>363</v>
       </c>
       <c r="K157" t="n">
-        <v>-9.67741935483871</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L157" t="n">
         <v>512.2</v>
@@ -8286,7 +8308,7 @@
         <v>363</v>
       </c>
       <c r="K158" t="n">
-        <v>-3.448275862068965</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L158" t="n">
         <v>512.1</v>
@@ -8337,7 +8359,7 @@
         <v>363</v>
       </c>
       <c r="K159" t="n">
-        <v>-9.090909090909092</v>
+        <v>-18.75</v>
       </c>
       <c r="L159" t="n">
         <v>512</v>
@@ -8388,7 +8410,7 @@
         <v>367</v>
       </c>
       <c r="K160" t="n">
-        <v>-13.79310344827586</v>
+        <v>-53.33333333333334</v>
       </c>
       <c r="L160" t="n">
         <v>511</v>
@@ -8439,7 +8461,7 @@
         <v>371</v>
       </c>
       <c r="K161" t="n">
-        <v>-23.33333333333333</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L161" t="n">
         <v>509</v>
@@ -8490,7 +8512,7 @@
         <v>379</v>
       </c>
       <c r="K162" t="n">
-        <v>-3.125</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L162" t="n">
         <v>508.5</v>
@@ -8541,7 +8563,7 @@
         <v>382</v>
       </c>
       <c r="K163" t="n">
-        <v>-4.615384615384616</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L163" t="n">
         <v>507.7</v>
@@ -8592,7 +8614,7 @@
         <v>387</v>
       </c>
       <c r="K164" t="n">
-        <v>-11.42857142857143</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L164" t="n">
         <v>506.9</v>
@@ -8643,7 +8665,7 @@
         <v>392</v>
       </c>
       <c r="K165" t="n">
-        <v>-4</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L165" t="n">
         <v>506.7</v>
@@ -8694,7 +8716,7 @@
         <v>393</v>
       </c>
       <c r="K166" t="n">
-        <v>-12.67605633802817</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>507</v>
@@ -8745,7 +8767,7 @@
         <v>394</v>
       </c>
       <c r="K167" t="n">
-        <v>-12.67605633802817</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L167" t="n">
         <v>506.5</v>
@@ -8796,7 +8818,7 @@
         <v>394</v>
       </c>
       <c r="K168" t="n">
-        <v>-8.823529411764707</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L168" t="n">
         <v>506</v>
@@ -8847,7 +8869,7 @@
         <v>395</v>
       </c>
       <c r="K169" t="n">
-        <v>-7.246376811594203</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>505.6</v>
@@ -8898,7 +8920,7 @@
         <v>396</v>
       </c>
       <c r="K170" t="n">
-        <v>-16.92307692307692</v>
+        <v>12</v>
       </c>
       <c r="L170" t="n">
         <v>505.5</v>
@@ -8949,7 +8971,7 @@
         <v>397</v>
       </c>
       <c r="K171" t="n">
-        <v>-30</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L171" t="n">
         <v>505.7</v>
@@ -9000,7 +9022,7 @@
         <v>400</v>
       </c>
       <c r="K172" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>504.8</v>
@@ -9051,7 +9073,7 @@
         <v>404</v>
       </c>
       <c r="K173" t="n">
-        <v>-16.66666666666666</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L173" t="n">
         <v>504.6</v>
@@ -9102,7 +9124,7 @@
         <v>405</v>
       </c>
       <c r="K174" t="n">
-        <v>-10.71428571428571</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L174" t="n">
         <v>504.8</v>
@@ -9153,7 +9175,7 @@
         <v>406</v>
       </c>
       <c r="K175" t="n">
-        <v>-10.71428571428571</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L175" t="n">
         <v>504.4</v>
@@ -9204,7 +9226,7 @@
         <v>406</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L176" t="n">
         <v>504.1</v>
@@ -9255,7 +9277,7 @@
         <v>406</v>
       </c>
       <c r="K177" t="n">
-        <v>-16.27906976744186</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L177" t="n">
         <v>503.9</v>
@@ -9306,7 +9328,7 @@
         <v>406</v>
       </c>
       <c r="K178" t="n">
-        <v>-16.27906976744186</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L178" t="n">
         <v>503.7</v>
@@ -9357,7 +9379,7 @@
         <v>406</v>
       </c>
       <c r="K179" t="n">
-        <v>-16.27906976744186</v>
+        <v>-20</v>
       </c>
       <c r="L179" t="n">
         <v>503.4</v>
@@ -9408,7 +9430,7 @@
         <v>406</v>
       </c>
       <c r="K180" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L180" t="n">
         <v>503.2</v>
@@ -9459,7 +9481,7 @@
         <v>406</v>
       </c>
       <c r="K181" t="n">
-        <v>2.857142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>503.1</v>
@@ -9510,7 +9532,7 @@
         <v>407</v>
       </c>
       <c r="K182" t="n">
-        <v>-21.42857142857143</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>503.4</v>
@@ -9561,7 +9583,7 @@
         <v>409</v>
       </c>
       <c r="K183" t="n">
-        <v>-18.51851851851852</v>
+        <v>-50</v>
       </c>
       <c r="L183" t="n">
         <v>503.1</v>
@@ -9612,7 +9634,7 @@
         <v>410</v>
       </c>
       <c r="K184" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>503</v>
@@ -9663,7 +9685,7 @@
         <v>413</v>
       </c>
       <c r="K185" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L185" t="n">
         <v>502.7</v>
@@ -9714,7 +9736,7 @@
         <v>413</v>
       </c>
       <c r="K186" t="n">
-        <v>-30</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L186" t="n">
         <v>502.4</v>
@@ -9765,7 +9787,7 @@
         <v>413</v>
       </c>
       <c r="K187" t="n">
-        <v>-26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L187" t="n">
         <v>502.1</v>
@@ -9816,7 +9838,7 @@
         <v>413</v>
       </c>
       <c r="K188" t="n">
-        <v>-26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L188" t="n">
         <v>501.8</v>
@@ -9867,7 +9889,7 @@
         <v>413</v>
       </c>
       <c r="K189" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L189" t="n">
         <v>501.5</v>
@@ -9918,7 +9940,7 @@
         <v>415</v>
       </c>
       <c r="K190" t="n">
-        <v>-36.84210526315789</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L190" t="n">
         <v>501</v>
@@ -9969,7 +9991,7 @@
         <v>417</v>
       </c>
       <c r="K191" t="n">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="L191" t="n">
         <v>500.3</v>
@@ -10020,7 +10042,7 @@
         <v>417</v>
       </c>
       <c r="K192" t="n">
-        <v>-29.41176470588236</v>
+        <v>-75</v>
       </c>
       <c r="L192" t="n">
         <v>499.5</v>
@@ -10071,7 +10093,7 @@
         <v>417</v>
       </c>
       <c r="K193" t="n">
-        <v>-69.23076923076923</v>
+        <v>-100</v>
       </c>
       <c r="L193" t="n">
         <v>498.9</v>
@@ -10122,7 +10144,7 @@
         <v>424</v>
       </c>
       <c r="K194" t="n">
-        <v>-5.263157894736842</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L194" t="n">
         <v>498.9</v>
@@ -10173,7 +10195,7 @@
         <v>426</v>
       </c>
       <c r="K195" t="n">
-        <v>-10</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L195" t="n">
         <v>499</v>
@@ -10224,7 +10246,7 @@
         <v>428</v>
       </c>
       <c r="K196" t="n">
-        <v>-18.18181818181818</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L196" t="n">
         <v>498.9</v>
@@ -10275,7 +10297,7 @@
         <v>428</v>
       </c>
       <c r="K197" t="n">
-        <v>-18.18181818181818</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L197" t="n">
         <v>498.8</v>
@@ -10326,7 +10348,7 @@
         <v>431</v>
       </c>
       <c r="K198" t="n">
-        <v>-28</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L198" t="n">
         <v>498.4</v>
@@ -10377,7 +10399,7 @@
         <v>434</v>
       </c>
       <c r="K199" t="n">
-        <v>-14.28571428571428</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L199" t="n">
         <v>498.3</v>
@@ -10428,7 +10450,7 @@
         <v>437</v>
       </c>
       <c r="K200" t="n">
-        <v>-22.58064516129032</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>498.1</v>
@@ -10479,7 +10501,7 @@
         <v>438</v>
       </c>
       <c r="K201" t="n">
-        <v>-25</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L201" t="n">
         <v>498</v>
@@ -10530,7 +10552,7 @@
         <v>439</v>
       </c>
       <c r="K202" t="n">
-        <v>-31.25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L202" t="n">
         <v>497.8</v>
@@ -10581,7 +10603,7 @@
         <v>441</v>
       </c>
       <c r="K203" t="n">
-        <v>-18.75</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L203" t="n">
         <v>497.8</v>
@@ -10632,7 +10654,7 @@
         <v>448</v>
       </c>
       <c r="K204" t="n">
-        <v>-36.84210526315789</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L204" t="n">
         <v>496.4</v>
@@ -10683,7 +10705,7 @@
         <v>453</v>
       </c>
       <c r="K205" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="L205" t="n">
         <v>495.7</v>
@@ -10734,7 +10756,7 @@
         <v>453</v>
       </c>
       <c r="K206" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="L206" t="n">
         <v>495.2</v>
@@ -10785,7 +10807,7 @@
         <v>457</v>
       </c>
       <c r="K207" t="n">
-        <v>-22.72727272727273</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L207" t="n">
         <v>494.3</v>
@@ -10836,7 +10858,7 @@
         <v>461</v>
       </c>
       <c r="K208" t="n">
-        <v>-12.5</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L208" t="n">
         <v>494.1</v>
@@ -10887,7 +10909,7 @@
         <v>462</v>
       </c>
       <c r="K209" t="n">
-        <v>-14.28571428571428</v>
+        <v>-12</v>
       </c>
       <c r="L209" t="n">
         <v>493.5</v>
@@ -10938,7 +10960,7 @@
         <v>462</v>
       </c>
       <c r="K210" t="n">
-        <v>-10.63829787234043</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L210" t="n">
         <v>493.2</v>
@@ -10989,7 +11011,7 @@
         <v>463</v>
       </c>
       <c r="K211" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>493.1</v>
@@ -11040,7 +11062,7 @@
         <v>463</v>
       </c>
       <c r="K212" t="n">
-        <v>-4.347826086956522</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L212" t="n">
         <v>493.1</v>
@@ -11091,7 +11113,7 @@
         <v>463</v>
       </c>
       <c r="K213" t="n">
-        <v>-4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L213" t="n">
         <v>492.9</v>
@@ -11142,7 +11164,7 @@
         <v>463</v>
       </c>
       <c r="K214" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>493.4</v>
@@ -11193,7 +11215,7 @@
         <v>465</v>
       </c>
       <c r="K215" t="n">
-        <v>-23.07692307692308</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L215" t="n">
         <v>493.2</v>
@@ -11244,7 +11266,7 @@
         <v>465</v>
       </c>
       <c r="K216" t="n">
-        <v>-18.91891891891892</v>
+        <v>25</v>
       </c>
       <c r="L216" t="n">
         <v>493</v>
@@ -11295,7 +11317,7 @@
         <v>466</v>
       </c>
       <c r="K217" t="n">
-        <v>-21.05263157894737</v>
+        <v>-60</v>
       </c>
       <c r="L217" t="n">
         <v>493.1</v>
@@ -11346,7 +11368,7 @@
         <v>466</v>
       </c>
       <c r="K218" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L218" t="n">
         <v>492.8</v>
@@ -11397,7 +11419,7 @@
         <v>467</v>
       </c>
       <c r="K219" t="n">
-        <v>-27.27272727272727</v>
+        <v>-60</v>
       </c>
       <c r="L219" t="n">
         <v>492.5</v>
@@ -11448,7 +11470,7 @@
         <v>467</v>
       </c>
       <c r="K220" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L220" t="n">
         <v>492.2</v>
@@ -11499,7 +11521,7 @@
         <v>468</v>
       </c>
       <c r="K221" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L221" t="n">
         <v>491.7</v>
@@ -11601,7 +11623,7 @@
         <v>473</v>
       </c>
       <c r="K223" t="n">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>491.7</v>
@@ -11652,7 +11674,7 @@
         <v>478</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L224" t="n">
         <v>491.2</v>
@@ -11703,7 +11725,7 @@
         <v>480</v>
       </c>
       <c r="K225" t="n">
-        <v>-25.92592592592592</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L225" t="n">
         <v>490.7</v>
@@ -11754,7 +11776,7 @@
         <v>483</v>
       </c>
       <c r="K226" t="n">
-        <v>-13.33333333333333</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L226" t="n">
         <v>490.5</v>
@@ -11805,7 +11827,7 @@
         <v>485</v>
       </c>
       <c r="K227" t="n">
-        <v>7.142857142857142</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L227" t="n">
         <v>490.6</v>
@@ -11856,7 +11878,7 @@
         <v>486</v>
       </c>
       <c r="K228" t="n">
-        <v>-4</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L228" t="n">
         <v>490.8</v>
@@ -11907,7 +11929,7 @@
         <v>487</v>
       </c>
       <c r="K229" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L229" t="n">
         <v>491.2</v>
@@ -11958,7 +11980,7 @@
         <v>490</v>
       </c>
       <c r="K230" t="n">
-        <v>14.28571428571428</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L230" t="n">
         <v>491.9</v>
@@ -12009,7 +12031,7 @@
         <v>490</v>
       </c>
       <c r="K231" t="n">
-        <v>11.11111111111111</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L231" t="n">
         <v>492.7</v>
@@ -12111,7 +12133,7 @@
         <v>493</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>492.7</v>
@@ -12162,7 +12184,7 @@
         <v>493</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L234" t="n">
         <v>493.2</v>
@@ -12213,7 +12235,7 @@
         <v>494</v>
       </c>
       <c r="K235" t="n">
-        <v>10.3448275862069</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L235" t="n">
         <v>494</v>
@@ -12264,7 +12286,7 @@
         <v>495</v>
       </c>
       <c r="K236" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L236" t="n">
         <v>494.4</v>
@@ -12315,7 +12337,7 @@
         <v>496</v>
       </c>
       <c r="K237" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>494.5</v>
@@ -12366,7 +12388,7 @@
         <v>496</v>
       </c>
       <c r="K238" t="n">
-        <v>6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L238" t="n">
         <v>494.5</v>
@@ -12417,7 +12439,7 @@
         <v>496</v>
       </c>
       <c r="K239" t="n">
-        <v>10.3448275862069</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L239" t="n">
         <v>494.4</v>
@@ -12468,7 +12490,7 @@
         <v>501</v>
       </c>
       <c r="K240" t="n">
-        <v>-5.88235294117647</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L240" t="n">
         <v>493.5</v>
@@ -12519,7 +12541,7 @@
         <v>501</v>
       </c>
       <c r="K241" t="n">
-        <v>-3.03030303030303</v>
+        <v>-75</v>
       </c>
       <c r="L241" t="n">
         <v>492.6</v>
@@ -12570,7 +12592,7 @@
         <v>502</v>
       </c>
       <c r="K242" t="n">
-        <v>-17.24137931034483</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L242" t="n">
         <v>492.1</v>
@@ -12621,7 +12643,7 @@
         <v>503</v>
       </c>
       <c r="K243" t="n">
-        <v>-13.33333333333333</v>
+        <v>-40</v>
       </c>
       <c r="L243" t="n">
         <v>491.7</v>
@@ -12672,7 +12694,7 @@
         <v>504</v>
       </c>
       <c r="K244" t="n">
-        <v>7.692307692307693</v>
+        <v>-40</v>
       </c>
       <c r="L244" t="n">
         <v>491.4</v>
@@ -12723,7 +12745,7 @@
         <v>505</v>
       </c>
       <c r="K245" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L245" t="n">
         <v>491.1</v>
@@ -12774,7 +12796,7 @@
         <v>506</v>
       </c>
       <c r="K246" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>491</v>
@@ -12825,7 +12847,7 @@
         <v>506</v>
       </c>
       <c r="K247" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>491</v>
@@ -12927,7 +12949,7 @@
         <v>509</v>
       </c>
       <c r="K249" t="n">
-        <v>-18.18181818181818</v>
+        <v>25</v>
       </c>
       <c r="L249" t="n">
         <v>490.7</v>
@@ -12978,7 +13000,7 @@
         <v>511</v>
       </c>
       <c r="K250" t="n">
-        <v>-42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>490.7</v>
@@ -13029,7 +13051,7 @@
         <v>511</v>
       </c>
       <c r="K251" t="n">
-        <v>-42.85714285714285</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L251" t="n">
         <v>490.7</v>
@@ -13080,7 +13102,7 @@
         <v>511</v>
       </c>
       <c r="K252" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L252" t="n">
         <v>490.6</v>
@@ -13131,7 +13153,7 @@
         <v>512</v>
       </c>
       <c r="K253" t="n">
-        <v>-26.31578947368421</v>
+        <v>-25</v>
       </c>
       <c r="L253" t="n">
         <v>490.5</v>
@@ -13182,7 +13204,7 @@
         <v>512</v>
       </c>
       <c r="K254" t="n">
-        <v>-26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L254" t="n">
         <v>490.3</v>
@@ -13233,7 +13255,7 @@
         <v>512</v>
       </c>
       <c r="K255" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L255" t="n">
         <v>490</v>
@@ -13284,7 +13306,7 @@
         <v>515</v>
       </c>
       <c r="K256" t="n">
-        <v>-10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L256" t="n">
         <v>489.9</v>
@@ -13335,7 +13357,7 @@
         <v>520</v>
       </c>
       <c r="K257" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L257" t="n">
         <v>489.3</v>
@@ -13386,7 +13408,7 @@
         <v>521</v>
       </c>
       <c r="K258" t="n">
-        <v>-28</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>488.6</v>
@@ -13437,7 +13459,7 @@
         <v>528</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L259" t="n">
         <v>488.9</v>
@@ -13488,7 +13510,7 @@
         <v>534</v>
       </c>
       <c r="K260" t="n">
-        <v>-3.03030303030303</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L260" t="n">
         <v>488.8</v>
@@ -13539,7 +13561,7 @@
         <v>536</v>
       </c>
       <c r="K261" t="n">
-        <v>2.857142857142857</v>
+        <v>4</v>
       </c>
       <c r="L261" t="n">
         <v>488.9</v>
@@ -13641,7 +13663,7 @@
         <v>536</v>
       </c>
       <c r="K263" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>489</v>
@@ -13692,7 +13714,7 @@
         <v>538</v>
       </c>
       <c r="K264" t="n">
-        <v>-11.76470588235294</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L264" t="n">
         <v>488.8</v>
@@ -13743,7 +13765,7 @@
         <v>539</v>
       </c>
       <c r="K265" t="n">
-        <v>-11.76470588235294</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L265" t="n">
         <v>488.7</v>
@@ -13794,7 +13816,7 @@
         <v>539</v>
       </c>
       <c r="K266" t="n">
-        <v>-15.15151515151515</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L266" t="n">
         <v>488.3</v>
@@ -13845,7 +13867,7 @@
         <v>539</v>
       </c>
       <c r="K267" t="n">
-        <v>-15.15151515151515</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L267" t="n">
         <v>488.4</v>
@@ -13896,7 +13918,7 @@
         <v>539</v>
       </c>
       <c r="K268" t="n">
-        <v>-15.15151515151515</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L268" t="n">
         <v>488.6</v>
@@ -13947,7 +13969,7 @@
         <v>540</v>
       </c>
       <c r="K269" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>488</v>
@@ -13998,7 +14020,7 @@
         <v>540</v>
       </c>
       <c r="K270" t="n">
-        <v>-3.448275862068965</v>
+        <v>-50</v>
       </c>
       <c r="L270" t="n">
         <v>488</v>
@@ -14049,7 +14071,7 @@
         <v>540</v>
       </c>
       <c r="K271" t="n">
-        <v>-3.448275862068965</v>
+        <v>-50</v>
       </c>
       <c r="L271" t="n">
         <v>487.8</v>
@@ -14100,7 +14122,7 @@
         <v>542</v>
       </c>
       <c r="K272" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L272" t="n">
         <v>487.8</v>
@@ -14151,7 +14173,7 @@
         <v>553</v>
       </c>
       <c r="K273" t="n">
-        <v>26.82926829268293</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L273" t="n">
         <v>488.9</v>
@@ -14202,7 +14224,7 @@
         <v>553</v>
       </c>
       <c r="K274" t="n">
-        <v>26.82926829268293</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L274" t="n">
         <v>490.2</v>
@@ -14253,7 +14275,7 @@
         <v>554</v>
       </c>
       <c r="K275" t="n">
-        <v>23.80952380952381</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L275" t="n">
         <v>491.3</v>
@@ -14304,7 +14326,7 @@
         <v>563</v>
       </c>
       <c r="K276" t="n">
-        <v>-4.166666666666666</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L276" t="n">
         <v>491.5</v>
@@ -14355,7 +14377,7 @@
         <v>573</v>
       </c>
       <c r="K277" t="n">
-        <v>24.52830188679245</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L277" t="n">
         <v>492.7</v>
@@ -14406,7 +14428,7 @@
         <v>581</v>
       </c>
       <c r="K278" t="n">
-        <v>10</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L278" t="n">
         <v>493.1</v>
@@ -14457,7 +14479,7 @@
         <v>583</v>
       </c>
       <c r="K279" t="n">
-        <v>-5.454545454545454</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L279" t="n">
         <v>493.4</v>
@@ -14508,7 +14530,7 @@
         <v>584</v>
       </c>
       <c r="K280" t="n">
-        <v>4</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L280" t="n">
         <v>493.6</v>
@@ -14559,7 +14581,7 @@
         <v>586</v>
       </c>
       <c r="K281" t="n">
-        <v>-4</v>
+        <v>-4.545454545454546</v>
       </c>
       <c r="L281" t="n">
         <v>493.6</v>
@@ -14610,7 +14632,7 @@
         <v>589</v>
       </c>
       <c r="K282" t="n">
-        <v>1.886792452830189</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L282" t="n">
         <v>493.7</v>
@@ -14661,7 +14683,7 @@
         <v>596</v>
       </c>
       <c r="K283" t="n">
-        <v>13.33333333333333</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L283" t="n">
         <v>493.4</v>
@@ -14712,7 +14734,7 @@
         <v>598</v>
       </c>
       <c r="K284" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>493.3</v>
@@ -14763,7 +14785,7 @@
         <v>598</v>
       </c>
       <c r="K285" t="n">
-        <v>18.64406779661017</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L285" t="n">
         <v>493.3</v>
@@ -14814,7 +14836,7 @@
         <v>602</v>
       </c>
       <c r="K286" t="n">
-        <v>11.11111111111111</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L286" t="n">
         <v>493.8</v>
@@ -14865,7 +14887,7 @@
         <v>603</v>
       </c>
       <c r="K287" t="n">
-        <v>12.5</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L287" t="n">
         <v>493.4</v>
@@ -14916,7 +14938,7 @@
         <v>604</v>
       </c>
       <c r="K288" t="n">
-        <v>10.76923076923077</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L288" t="n">
         <v>493.7</v>
@@ -14967,7 +14989,7 @@
         <v>604</v>
       </c>
       <c r="K289" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="L289" t="n">
         <v>494.2</v>
@@ -15018,7 +15040,7 @@
         <v>604</v>
       </c>
       <c r="K290" t="n">
-        <v>12.5</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L290" t="n">
         <v>494.8</v>
@@ -15069,7 +15091,7 @@
         <v>604</v>
       </c>
       <c r="K291" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>495.6</v>
@@ -15120,7 +15142,7 @@
         <v>604</v>
       </c>
       <c r="K292" t="n">
-        <v>9.67741935483871</v>
+        <v>-25</v>
       </c>
       <c r="L292" t="n">
         <v>496.1</v>
@@ -15171,7 +15193,7 @@
         <v>604</v>
       </c>
       <c r="K293" t="n">
-        <v>-9.803921568627452</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L293" t="n">
         <v>495.9</v>
@@ -15222,7 +15244,7 @@
         <v>604</v>
       </c>
       <c r="K294" t="n">
-        <v>-9.803921568627452</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L294" t="n">
         <v>495.5</v>
@@ -15273,7 +15295,7 @@
         <v>604</v>
       </c>
       <c r="K295" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>495.1</v>
@@ -15324,7 +15346,7 @@
         <v>604</v>
       </c>
       <c r="K296" t="n">
-        <v>12.19512195121951</v>
+        <v>-100</v>
       </c>
       <c r="L296" t="n">
         <v>495.1</v>
@@ -15374,9 +15396,7 @@
       <c r="J297" t="n">
         <v>604</v>
       </c>
-      <c r="K297" t="n">
-        <v>-16.12903225806452</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>495</v>
       </c>
@@ -15426,7 +15446,7 @@
         <v>605</v>
       </c>
       <c r="K298" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L298" t="n">
         <v>495.1</v>
@@ -15477,7 +15497,7 @@
         <v>605</v>
       </c>
       <c r="K299" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L299" t="n">
         <v>495.2</v>
@@ -15528,7 +15548,7 @@
         <v>606</v>
       </c>
       <c r="K300" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>495.2</v>
@@ -15579,7 +15599,7 @@
         <v>614</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="L301" t="n">
         <v>494.4</v>
@@ -15630,7 +15650,7 @@
         <v>614</v>
       </c>
       <c r="K302" t="n">
-        <v>-12</v>
+        <v>-80</v>
       </c>
       <c r="L302" t="n">
         <v>493.6</v>
@@ -15681,7 +15701,7 @@
         <v>619</v>
       </c>
       <c r="K303" t="n">
-        <v>-21.73913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L303" t="n">
         <v>493.3</v>
@@ -15732,7 +15752,7 @@
         <v>624</v>
       </c>
       <c r="K304" t="n">
-        <v>-46.15384615384615</v>
+        <v>-40</v>
       </c>
       <c r="L304" t="n">
         <v>492.5</v>
@@ -15783,7 +15803,7 @@
         <v>626</v>
       </c>
       <c r="K305" t="n">
-        <v>-50</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L305" t="n">
         <v>491.5</v>
@@ -15834,7 +15854,7 @@
         <v>631</v>
       </c>
       <c r="K306" t="n">
-        <v>-17.24137931034483</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L306" t="n">
         <v>491</v>
@@ -15885,7 +15905,7 @@
         <v>636</v>
       </c>
       <c r="K307" t="n">
-        <v>-33.33333333333333</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L307" t="n">
         <v>490</v>
@@ -15936,7 +15956,7 @@
         <v>638</v>
       </c>
       <c r="K308" t="n">
-        <v>-23.52941176470588</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L308" t="n">
         <v>489.1</v>
@@ -15987,7 +16007,7 @@
         <v>644</v>
       </c>
       <c r="K309" t="n">
-        <v>-5</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L309" t="n">
         <v>488.8</v>
@@ -16038,7 +16058,7 @@
         <v>653</v>
       </c>
       <c r="K310" t="n">
-        <v>-22.44897959183674</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L310" t="n">
         <v>487.7</v>
@@ -16089,7 +16109,7 @@
         <v>657</v>
       </c>
       <c r="K311" t="n">
-        <v>-28.30188679245283</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L311" t="n">
         <v>487</v>
@@ -16140,7 +16160,7 @@
         <v>666</v>
       </c>
       <c r="K312" t="n">
-        <v>-9.67741935483871</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L312" t="n">
         <v>487.2</v>
@@ -16191,7 +16211,7 @@
         <v>674</v>
       </c>
       <c r="K313" t="n">
-        <v>-20</v>
+        <v>-12</v>
       </c>
       <c r="L313" t="n">
         <v>486.1</v>
@@ -16242,7 +16262,7 @@
         <v>678</v>
       </c>
       <c r="K314" t="n">
-        <v>-13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>485.9</v>
@@ -16293,7 +16313,7 @@
         <v>679</v>
       </c>
       <c r="K315" t="n">
-        <v>-12</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L315" t="n">
         <v>486</v>
@@ -16344,7 +16364,7 @@
         <v>685</v>
       </c>
       <c r="K316" t="n">
-        <v>-3.703703703703703</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L316" t="n">
         <v>486.2</v>
@@ -16395,7 +16415,7 @@
         <v>692</v>
       </c>
       <c r="K317" t="n">
-        <v>-11.36363636363636</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L317" t="n">
         <v>486.2</v>
@@ -16446,7 +16466,7 @@
         <v>695</v>
       </c>
       <c r="K318" t="n">
-        <v>-8.888888888888889</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L318" t="n">
         <v>486.3</v>
@@ -16497,7 +16517,7 @@
         <v>695</v>
       </c>
       <c r="K319" t="n">
-        <v>-8.888888888888889</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L319" t="n">
         <v>485.8</v>
@@ -16548,7 +16568,7 @@
         <v>695</v>
       </c>
       <c r="K320" t="n">
-        <v>-7.865168539325842</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L320" t="n">
         <v>486.2</v>
@@ -16599,7 +16619,7 @@
         <v>698</v>
       </c>
       <c r="K321" t="n">
-        <v>-2.380952380952381</v>
+        <v>-12.5</v>
       </c>
       <c r="L321" t="n">
         <v>486.7</v>
@@ -16650,7 +16670,7 @@
         <v>698</v>
       </c>
       <c r="K322" t="n">
-        <v>-2.380952380952381</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L322" t="n">
         <v>486.3</v>
@@ -16701,7 +16721,7 @@
         <v>699</v>
       </c>
       <c r="K323" t="n">
-        <v>-7.5</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L323" t="n">
         <v>486.8</v>
@@ -16752,7 +16772,7 @@
         <v>700</v>
       </c>
       <c r="K324" t="n">
-        <v>-2.631578947368421</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L324" t="n">
         <v>486.8</v>
@@ -16803,7 +16823,7 @@
         <v>702</v>
       </c>
       <c r="K325" t="n">
-        <v>2.631578947368421</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L325" t="n">
         <v>486.9</v>
@@ -16854,7 +16874,7 @@
         <v>708</v>
       </c>
       <c r="K326" t="n">
-        <v>3.896103896103896</v>
+        <v>50</v>
       </c>
       <c r="L326" t="n">
         <v>487</v>
@@ -16905,7 +16925,7 @@
         <v>715</v>
       </c>
       <c r="K327" t="n">
-        <v>1.265822784810127</v>
+        <v>-10</v>
       </c>
       <c r="L327" t="n">
         <v>487.1</v>
@@ -16956,7 +16976,7 @@
         <v>717</v>
       </c>
       <c r="K328" t="n">
-        <v>1.265822784810127</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>487.1</v>
@@ -17007,7 +17027,7 @@
         <v>719</v>
       </c>
       <c r="K329" t="n">
-        <v>-9.333333333333334</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L329" t="n">
         <v>486.9</v>
@@ -17058,7 +17078,7 @@
         <v>720</v>
       </c>
       <c r="K330" t="n">
-        <v>1.492537313432836</v>
+        <v>0</v>
       </c>
       <c r="L330" t="n">
         <v>486.6</v>
@@ -17109,7 +17129,7 @@
         <v>720</v>
       </c>
       <c r="K331" t="n">
-        <v>7.936507936507936</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>486.6</v>
@@ -17160,7 +17180,7 @@
         <v>723</v>
       </c>
       <c r="K332" t="n">
-        <v>-12.28070175438596</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L332" t="n">
         <v>486.3</v>
@@ -17211,7 +17231,7 @@
         <v>723</v>
       </c>
       <c r="K333" t="n">
-        <v>2.040816326530612</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L333" t="n">
         <v>485.9</v>
@@ -17262,7 +17282,7 @@
         <v>723</v>
       </c>
       <c r="K334" t="n">
-        <v>-6.666666666666667</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L334" t="n">
         <v>485.6</v>
@@ -17313,7 +17333,7 @@
         <v>724</v>
       </c>
       <c r="K335" t="n">
-        <v>-11.11111111111111</v>
+        <v>-75</v>
       </c>
       <c r="L335" t="n">
         <v>485</v>
@@ -17364,7 +17384,7 @@
         <v>724</v>
       </c>
       <c r="K336" t="n">
-        <v>-28.2051282051282</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L336" t="n">
         <v>483.8</v>
@@ -17415,7 +17435,7 @@
         <v>725</v>
       </c>
       <c r="K337" t="n">
-        <v>-9.090909090909092</v>
+        <v>-75</v>
       </c>
       <c r="L337" t="n">
         <v>483.4</v>
@@ -17466,7 +17486,7 @@
         <v>727</v>
       </c>
       <c r="K338" t="n">
-        <v>-25</v>
+        <v>-75</v>
       </c>
       <c r="L338" t="n">
         <v>482.6</v>
@@ -17517,7 +17537,7 @@
         <v>733</v>
       </c>
       <c r="K339" t="n">
-        <v>-5.263157894736842</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L339" t="n">
         <v>482.6</v>
@@ -17568,7 +17588,7 @@
         <v>743</v>
       </c>
       <c r="K340" t="n">
-        <v>-25</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L340" t="n">
         <v>481.7</v>
@@ -17619,7 +17639,7 @@
         <v>753</v>
       </c>
       <c r="K341" t="n">
-        <v>1.818181818181818</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L341" t="n">
         <v>481.8</v>
@@ -17670,7 +17690,7 @@
         <v>761</v>
       </c>
       <c r="K342" t="n">
-        <v>-11.11111111111111</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L342" t="n">
         <v>481.4</v>
@@ -17721,7 +17741,7 @@
         <v>762</v>
       </c>
       <c r="K343" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L343" t="n">
         <v>481.1</v>

--- a/BackTest/2019-10-22 BackTest PPT.xlsx
+++ b/BackTest/2019-10-22 BackTest PPT.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -871,13 +871,17 @@
         <v>494.7</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>492</v>
+      </c>
+      <c r="K14" t="n">
+        <v>492</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -906,14 +910,22 @@
         <v>495.0666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>492</v>
+      </c>
+      <c r="K15" t="n">
+        <v>492</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -941,14 +953,22 @@
         <v>495.4333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>500</v>
+      </c>
+      <c r="K16" t="n">
+        <v>492</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>492</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1017,8 +1043,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>492</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1052,8 +1084,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>492</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1087,8 +1125,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>492</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,8 +1166,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>492</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1157,8 +1207,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>492</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1192,8 +1248,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>492</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1227,8 +1289,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>492</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1330,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>492</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1371,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>492</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1332,8 +1412,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>492</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1367,8 +1453,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>492</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1402,8 +1494,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>492</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1437,8 +1535,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>492</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1472,8 +1576,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>492</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1501,14 +1611,22 @@
         <v>497.6666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>493</v>
+      </c>
+      <c r="K32" t="n">
+        <v>492</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1542,8 +1660,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>492</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1577,8 +1701,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>492</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1612,8 +1742,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>492</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1647,8 +1783,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>492</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1682,8 +1824,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>492</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1714,13 +1862,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>492</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>1.011260162601626</v>
       </c>
     </row>
     <row r="39">
@@ -1749,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -3394,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3429,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3464,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3499,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3639,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3674,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3709,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3744,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3779,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -8921,17 +9075,13 @@
         <v>494.0833333333333</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>491</v>
-      </c>
-      <c r="K244" t="n">
-        <v>491</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
@@ -8966,14 +9116,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>491</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9007,14 +9151,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>491</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9217,17 +9355,13 @@
         <v>493</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>488</v>
-      </c>
-      <c r="K252" t="n">
-        <v>488</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
@@ -9256,22 +9390,14 @@
         <v>492.8833333333333</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>489</v>
-      </c>
-      <c r="K253" t="n">
-        <v>488</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9299,22 +9425,14 @@
         <v>492.65</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>489</v>
-      </c>
-      <c r="K254" t="n">
-        <v>488</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9342,17 +9460,13 @@
         <v>492.45</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>489</v>
-      </c>
-      <c r="K255" t="n">
-        <v>489</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
@@ -9381,22 +9495,14 @@
         <v>492.3333333333333</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>492</v>
-      </c>
-      <c r="K256" t="n">
-        <v>489</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9424,22 +9530,14 @@
         <v>492.1333333333333</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>487</v>
-      </c>
-      <c r="K257" t="n">
-        <v>489</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9467,17 +9565,13 @@
         <v>491.9666666666666</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>486</v>
-      </c>
-      <c r="K258" t="n">
-        <v>486</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
@@ -9506,22 +9600,14 @@
         <v>491.8666666666667</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>492</v>
-      </c>
-      <c r="K259" t="n">
-        <v>486</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9549,22 +9635,14 @@
         <v>491.7166666666666</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>489</v>
-      </c>
-      <c r="K260" t="n">
-        <v>486</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9592,22 +9670,14 @@
         <v>491.6166666666667</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>490</v>
-      </c>
-      <c r="K261" t="n">
-        <v>486</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9635,22 +9705,14 @@
         <v>491.5333333333334</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>489</v>
-      </c>
-      <c r="K262" t="n">
-        <v>486</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9678,22 +9740,14 @@
         <v>491.4166666666667</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>489</v>
-      </c>
-      <c r="K263" t="n">
-        <v>486</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9721,22 +9775,14 @@
         <v>491.3833333333333</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>487</v>
-      </c>
-      <c r="K264" t="n">
-        <v>486</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9764,22 +9810,14 @@
         <v>491.2833333333334</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>492</v>
-      </c>
-      <c r="K265" t="n">
-        <v>486</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9807,22 +9845,14 @@
         <v>491.1833333333333</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>488</v>
-      </c>
-      <c r="K266" t="n">
-        <v>486</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9850,22 +9880,14 @@
         <v>491.15</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>488</v>
-      </c>
-      <c r="K267" t="n">
-        <v>486</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9893,22 +9915,14 @@
         <v>491.05</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>488</v>
-      </c>
-      <c r="K268" t="n">
-        <v>486</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9936,22 +9950,14 @@
         <v>490.95</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>488</v>
-      </c>
-      <c r="K269" t="n">
-        <v>486</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9979,22 +9985,14 @@
         <v>490.85</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>487</v>
-      </c>
-      <c r="K270" t="n">
-        <v>486</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10022,22 +10020,14 @@
         <v>490.7333333333333</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>487</v>
-      </c>
-      <c r="K271" t="n">
-        <v>486</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10065,22 +10055,14 @@
         <v>490.65</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>489</v>
-      </c>
-      <c r="K272" t="n">
-        <v>486</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10108,22 +10090,14 @@
         <v>490.75</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>499</v>
-      </c>
-      <c r="K273" t="n">
-        <v>486</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10151,22 +10125,14 @@
         <v>490.85</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>492</v>
-      </c>
-      <c r="K274" t="n">
-        <v>486</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10194,22 +10160,14 @@
         <v>490.9666666666666</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>499</v>
-      </c>
-      <c r="K275" t="n">
-        <v>486</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10243,14 +10201,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>486</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10284,14 +10236,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>486</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10325,14 +10271,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>486</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10366,14 +10306,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>486</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10407,14 +10341,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>486</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10448,14 +10376,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>486</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10489,14 +10411,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>486</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10524,22 +10440,14 @@
         <v>491.0333333333334</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>490</v>
-      </c>
-      <c r="K283" t="n">
-        <v>486</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10567,22 +10475,14 @@
         <v>491.2</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>499</v>
-      </c>
-      <c r="K284" t="n">
-        <v>486</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10616,14 +10516,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>486</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10657,14 +10551,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>486</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10698,14 +10586,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>486</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10739,14 +10621,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>486</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10780,14 +10656,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>486</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10821,14 +10691,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>486</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10862,14 +10726,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>486</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10903,14 +10761,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>486</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10944,14 +10796,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>486</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10985,14 +10831,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>486</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11026,14 +10866,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>486</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11067,14 +10901,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>486</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11108,14 +10936,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>486</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11149,14 +10971,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>486</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11190,14 +11006,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>486</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11231,14 +11041,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>486</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11272,14 +11076,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>486</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11313,14 +11111,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>486</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11354,14 +11146,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>486</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11395,14 +11181,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>486</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11436,14 +11216,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>486</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11471,22 +11245,14 @@
         <v>491.6</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>490</v>
-      </c>
-      <c r="K306" t="n">
-        <v>486</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11514,22 +11280,14 @@
         <v>491.4666666666666</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>489</v>
-      </c>
-      <c r="K307" t="n">
-        <v>486</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11557,22 +11315,14 @@
         <v>491.3666666666667</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>487</v>
-      </c>
-      <c r="K308" t="n">
-        <v>486</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11600,22 +11350,14 @@
         <v>491.4166666666667</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>492</v>
-      </c>
-      <c r="K309" t="n">
-        <v>486</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11643,22 +11385,14 @@
         <v>491.35</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>486</v>
-      </c>
-      <c r="K310" t="n">
-        <v>486</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11686,22 +11420,14 @@
         <v>491.2166666666666</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>483</v>
-      </c>
-      <c r="K311" t="n">
-        <v>486</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11729,22 +11455,14 @@
         <v>491.2333333333333</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>481</v>
-      </c>
-      <c r="K312" t="n">
-        <v>486</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11772,22 +11490,14 @@
         <v>491.1</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>481</v>
-      </c>
-      <c r="K313" t="n">
-        <v>486</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11815,22 +11525,14 @@
         <v>491.0333333333334</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>485</v>
-      </c>
-      <c r="K314" t="n">
-        <v>486</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11858,22 +11560,14 @@
         <v>490.9833333333333</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>485</v>
-      </c>
-      <c r="K315" t="n">
-        <v>486</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11901,22 +11595,14 @@
         <v>490.9833333333333</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>486</v>
-      </c>
-      <c r="K316" t="n">
-        <v>486</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11944,22 +11630,14 @@
         <v>490.95</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>485</v>
-      </c>
-      <c r="K317" t="n">
-        <v>486</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11987,22 +11665,14 @@
         <v>490.9833333333333</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>487</v>
-      </c>
-      <c r="K318" t="n">
-        <v>486</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12030,22 +11700,14 @@
         <v>490.9</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>487</v>
-      </c>
-      <c r="K319" t="n">
-        <v>486</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12073,22 +11735,14 @@
         <v>490.9166666666667</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>488</v>
-      </c>
-      <c r="K320" t="n">
-        <v>486</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12116,22 +11770,14 @@
         <v>490.85</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>487</v>
-      </c>
-      <c r="K321" t="n">
-        <v>486</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12159,22 +11805,14 @@
         <v>490.7833333333334</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>485</v>
-      </c>
-      <c r="K322" t="n">
-        <v>486</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-22 BackTest PPT.xlsx
+++ b/BackTest/2019-10-22 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,10 +583,14 @@
         <v>3477.605999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>473</v>
+      </c>
+      <c r="J6" t="n">
+        <v>473</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +620,19 @@
         <v>3089.654999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>480</v>
+      </c>
+      <c r="J7" t="n">
+        <v>473</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +661,19 @@
         <v>2947.354999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>479</v>
+      </c>
+      <c r="J8" t="n">
+        <v>473</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,7 +702,7 @@
         <v>2947.354999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>478</v>
@@ -719,7 +739,7 @@
         <v>2827.354999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>478</v>
@@ -760,7 +780,7 @@
         <v>3027.354999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>474</v>
@@ -801,7 +821,7 @@
         <v>3028.354999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>475</v>
@@ -842,9 +862,11 @@
         <v>6012.807799999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>480</v>
+      </c>
       <c r="J13" t="n">
         <v>478</v>
       </c>
@@ -881,9 +903,11 @@
         <v>5905.807799999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>481</v>
+      </c>
       <c r="J14" t="n">
         <v>478</v>
       </c>
@@ -920,9 +944,11 @@
         <v>5905.807799999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>478</v>
+      </c>
       <c r="J15" t="n">
         <v>478</v>
       </c>
@@ -959,9 +985,11 @@
         <v>5955.807799999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>478</v>
+      </c>
       <c r="J16" t="n">
         <v>478</v>
       </c>
@@ -1739,7 +1767,7 @@
         <v>25619.6933</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
@@ -2519,7 +2547,7 @@
         <v>27336.32769999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
@@ -2558,7 +2586,7 @@
         <v>31505.77419999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
@@ -2675,7 +2703,7 @@
         <v>32682.03669999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
@@ -2987,7 +3015,7 @@
         <v>27032.78389999999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
@@ -3026,7 +3054,7 @@
         <v>25000.11789999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
@@ -3104,7 +3132,7 @@
         <v>25331.70269999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
@@ -3143,7 +3171,7 @@
         <v>25331.70269999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
@@ -5015,7 +5043,7 @@
         <v>22681.7857</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
@@ -5023,11 +5051,11 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.038933054393306</v>
+        <v>1</v>
       </c>
       <c r="M120" t="inlineStr"/>
     </row>
@@ -5054,11 +5082,17 @@
         <v>22384.0094</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>478</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5087,11 +5121,17 @@
         <v>22389.0094</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>478</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5123,8 +5163,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>478</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5156,8 +5202,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>478</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5189,8 +5241,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>478</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5222,8 +5280,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>478</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5255,8 +5319,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>478</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5288,8 +5358,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>478</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5321,8 +5397,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>478</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5354,8 +5436,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>478</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5387,8 +5475,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>478</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5420,8 +5514,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>478</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5453,8 +5553,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>478</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5486,8 +5592,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>478</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5519,8 +5631,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>478</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5552,8 +5670,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>478</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5585,8 +5709,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>478</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5618,8 +5748,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>478</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5651,8 +5787,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>478</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5684,8 +5826,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>478</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5714,11 +5862,17 @@
         <v>35926.57457449999</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>478</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5747,11 +5901,17 @@
         <v>37342.55327449999</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>478</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5780,11 +5940,17 @@
         <v>37492.09257449999</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>478</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5813,11 +5979,17 @@
         <v>39104.09689999999</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>478</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5846,11 +6018,17 @@
         <v>39137.75067175999</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>478</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5879,11 +6057,17 @@
         <v>36227.90019725999</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>478</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +6096,17 @@
         <v>36094.80019725999</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>478</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5945,11 +6135,17 @@
         <v>36094.80019725999</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>478</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5978,11 +6174,17 @@
         <v>36094.80019725999</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>478</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +6213,17 @@
         <v>42165.82402275999</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>478</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6044,11 +6252,17 @@
         <v>46203.40842275999</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>478</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6077,11 +6291,17 @@
         <v>46203.40842275999</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>478</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6110,11 +6330,17 @@
         <v>44289.35002275999</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>478</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +6369,17 @@
         <v>42449.94772275999</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>478</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6176,11 +6408,17 @@
         <v>42449.94772275999</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>478</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +6447,17 @@
         <v>42449.94772275999</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>478</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6242,11 +6486,17 @@
         <v>36210.83624825998</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>478</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6275,15 +6525,23 @@
         <v>36439.83624825998</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>478</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>1.068221757322176</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1.029850746268657</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6308,7 +6566,7 @@
         <v>35399.01434825998</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6341,7 +6599,7 @@
         <v>39862.20144825998</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6374,7 +6632,7 @@
         <v>39020.35944825999</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6407,7 +6665,7 @@
         <v>39876.44876863999</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6440,7 +6698,7 @@
         <v>39921.33096863999</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6473,7 +6731,7 @@
         <v>39743.33096863999</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6506,7 +6764,7 @@
         <v>40170.43096863999</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6539,7 +6797,7 @@
         <v>40170.43096863999</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6572,7 +6830,7 @@
         <v>41129.76576863998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6605,7 +6863,7 @@
         <v>41229.76576863998</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6638,7 +6896,7 @@
         <v>42299.87336863999</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6671,7 +6929,7 @@
         <v>45472.01113177999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6737,7 +6995,7 @@
         <v>46757.95683177999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6836,7 +7094,7 @@
         <v>44772.29893177999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6869,7 +7127,7 @@
         <v>46009.60863177999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6902,7 +7160,7 @@
         <v>50160.24953177999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6935,7 +7193,7 @@
         <v>59425.22856863999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6968,7 +7226,7 @@
         <v>58832.98036863999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7001,7 +7259,7 @@
         <v>58832.98036863999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7034,7 +7292,7 @@
         <v>54835.01236863999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7166,7 +7424,7 @@
         <v>54961.91316863999</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7232,7 +7490,7 @@
         <v>55079.94579818999</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7298,7 +7556,7 @@
         <v>55109.38639818999</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7331,7 +7589,7 @@
         <v>53932.53179818999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7397,7 +7655,7 @@
         <v>53143.27559818999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7430,7 +7688,7 @@
         <v>51253.44729818999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7463,7 +7721,7 @@
         <v>51253.44729818999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7496,7 +7754,7 @@
         <v>48716.27749818999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7529,7 +7787,7 @@
         <v>48717.27749818999</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7562,7 +7820,7 @@
         <v>43796.37399818999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7595,7 +7853,7 @@
         <v>44907.44859818999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7628,7 +7886,7 @@
         <v>44659.41309818999</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7661,7 +7919,7 @@
         <v>44668.41309818999</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7694,7 +7952,7 @@
         <v>44401.60989818998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7727,7 +7985,7 @@
         <v>43734.73279818999</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7760,7 +8018,7 @@
         <v>43734.73279818999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7793,7 +8051,7 @@
         <v>43734.73279818999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7826,7 +8084,7 @@
         <v>44871.71659818999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7859,7 +8117,7 @@
         <v>44090.62829818999</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7892,7 +8150,7 @@
         <v>44051.06169818999</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7925,7 +8183,7 @@
         <v>44051.06169818999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7958,7 +8216,7 @@
         <v>44937.53566445999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8024,7 +8282,7 @@
         <v>49842.33612143999</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8387,7 +8645,7 @@
         <v>45630.75612144</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8420,7 +8678,7 @@
         <v>44870.88202144</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8453,7 +8711,7 @@
         <v>45159.72242144</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8486,7 +8744,7 @@
         <v>44459.72242144</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8519,7 +8777,7 @@
         <v>44101.17012143999</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8552,7 +8810,7 @@
         <v>44101.17012143999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8585,7 +8843,7 @@
         <v>45352.07032144</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8618,7 +8876,7 @@
         <v>41536.07392143999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8651,7 +8909,7 @@
         <v>41436.07392143999</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8684,7 +8942,7 @@
         <v>41092.45482143999</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8717,7 +8975,7 @@
         <v>44594.68942143999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8750,7 +9008,7 @@
         <v>38676.87922143999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8783,7 +9041,7 @@
         <v>34625.21532144</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8816,7 +9074,7 @@
         <v>34625.21532144</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8849,7 +9107,7 @@
         <v>34625.21532144</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8948,7 +9206,7 @@
         <v>34625.21532144</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -13073,7 +13331,7 @@
         <v>2059.823421439996</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13975,6 +14233,6 @@
       <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest PPT.xlsx
+++ b/BackTest/2019-10-22 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,11 +484,17 @@
         <v>3360.902099999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>483</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>3260.902099999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>482</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +566,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,15 +599,15 @@
         <v>3477.605999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>473</v>
-      </c>
-      <c r="J6" t="n">
-        <v>473</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,17 +636,13 @@
         <v>3089.654999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>480</v>
-      </c>
-      <c r="J7" t="n">
-        <v>473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -666,12 +678,10 @@
       <c r="I8" t="n">
         <v>479</v>
       </c>
-      <c r="J8" t="n">
-        <v>473</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -702,15 +712,15 @@
         <v>2947.354999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>478</v>
-      </c>
-      <c r="J9" t="n">
-        <v>478</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -739,17 +749,13 @@
         <v>2827.354999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>478</v>
-      </c>
-      <c r="J10" t="n">
-        <v>478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -780,17 +786,13 @@
         <v>3027.354999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>474</v>
-      </c>
-      <c r="J11" t="n">
-        <v>478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -821,14 +823,10 @@
         <v>3028.354999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>475</v>
-      </c>
-      <c r="J12" t="n">
-        <v>478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -862,14 +860,10 @@
         <v>6012.807799999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>480</v>
-      </c>
-      <c r="J13" t="n">
-        <v>478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -903,14 +897,10 @@
         <v>5905.807799999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>481</v>
-      </c>
-      <c r="J14" t="n">
-        <v>478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -944,14 +934,10 @@
         <v>5905.807799999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>478</v>
-      </c>
-      <c r="J15" t="n">
-        <v>478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -985,14 +971,10 @@
         <v>5955.807799999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>478</v>
-      </c>
-      <c r="J16" t="n">
-        <v>478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1029,9 +1011,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>478</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1068,9 +1048,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>478</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1107,9 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>478</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1146,9 +1122,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>478</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1185,9 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>478</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1224,9 +1196,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>478</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1263,9 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>478</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1302,9 +1270,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>478</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1341,9 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>478</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1380,9 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>478</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1419,9 +1381,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>478</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1458,9 +1418,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>478</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1494,20 +1452,16 @@
         <v>20223.0453</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>478</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1533,17 +1487,11 @@
         <v>20423.0453</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>478</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1572,17 +1520,11 @@
         <v>22987.2612</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>478</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1611,17 +1553,11 @@
         <v>23886.1228</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>478</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1650,17 +1586,11 @@
         <v>29469.5154</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>478</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1689,17 +1619,11 @@
         <v>25465.3645</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>478</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1728,17 +1652,11 @@
         <v>25672.3645</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>478</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1767,17 +1685,11 @@
         <v>25619.6933</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>478</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1806,17 +1718,11 @@
         <v>25619.6933</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>478</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1845,17 +1751,11 @@
         <v>25257.6933</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>478</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1884,17 +1784,11 @@
         <v>25511.1933</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>478</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1923,17 +1817,11 @@
         <v>24134.86369999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>478</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1965,14 +1853,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>478</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2004,14 +1886,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>478</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2043,14 +1919,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>478</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2082,14 +1952,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>478</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2121,14 +1985,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>478</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2160,14 +2018,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>478</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2199,14 +2051,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>478</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2238,14 +2084,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>478</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2277,14 +2117,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>478</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2316,14 +2150,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>478</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2355,14 +2183,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>478</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2394,14 +2216,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>478</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2433,14 +2249,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>478</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2472,14 +2282,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>478</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2511,14 +2315,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>478</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2550,14 +2348,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>478</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2589,14 +2381,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>478</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2628,14 +2414,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>478</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2667,14 +2447,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>478</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2706,14 +2480,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>478</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2742,17 +2510,11 @@
         <v>31739.11099999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>478</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2781,17 +2543,11 @@
         <v>32284.11099999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>478</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2820,17 +2576,11 @@
         <v>31283.63959999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>478</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2859,17 +2609,11 @@
         <v>31244.69409999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>478</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2901,14 +2645,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>478</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2940,14 +2678,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>478</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2976,17 +2708,11 @@
         <v>24498.27749999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>478</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3015,17 +2741,11 @@
         <v>27032.78389999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>478</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3054,17 +2774,11 @@
         <v>25000.11789999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>478</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3093,17 +2807,11 @@
         <v>25000.11789999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>478</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3135,14 +2843,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>478</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3174,14 +2876,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>478</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3213,14 +2909,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>478</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3252,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>478</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3291,14 +2975,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>478</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3330,14 +3008,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>478</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3369,14 +3041,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>478</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3408,14 +3074,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>478</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3447,14 +3107,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>478</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3486,14 +3140,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>478</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3525,14 +3173,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>478</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3564,14 +3206,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>478</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3603,14 +3239,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>478</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3642,14 +3272,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>478</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3681,14 +3305,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>478</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3720,14 +3338,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>478</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3759,14 +3371,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>478</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3798,14 +3404,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>478</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3837,14 +3437,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>478</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3876,14 +3470,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>478</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3915,14 +3503,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>478</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3954,14 +3536,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>478</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3993,14 +3569,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>478</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4032,14 +3602,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>478</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4071,14 +3635,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>478</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4110,14 +3668,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>478</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4149,14 +3701,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>478</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4188,14 +3734,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>478</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4227,14 +3767,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>478</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>478</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4305,14 +3833,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>478</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4344,14 +3866,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>478</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4383,14 +3899,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>478</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4422,14 +3932,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>478</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4461,14 +3965,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>478</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4500,14 +3998,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>478</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4539,14 +4031,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>478</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4578,14 +4064,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>478</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4617,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>478</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4656,14 +4130,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>478</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4695,14 +4163,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>478</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4734,14 +4196,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>478</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4773,14 +4229,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>478</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4812,14 +4262,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>478</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4851,14 +4295,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>478</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4890,14 +4328,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>478</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4929,14 +4361,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>478</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4968,14 +4394,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>478</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5007,14 +4427,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>478</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5046,14 +4460,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>478</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5085,14 +4493,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>478</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5124,14 +4526,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>478</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5163,14 +4559,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>478</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5202,14 +4592,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>478</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5241,14 +4625,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>478</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5280,14 +4658,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>478</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5319,14 +4691,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>478</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5358,14 +4724,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>478</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5397,14 +4757,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>478</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5436,14 +4790,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>478</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5475,14 +4823,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>478</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5514,14 +4856,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>478</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5553,14 +4889,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>478</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5592,14 +4922,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>478</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5631,14 +4955,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>478</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5670,14 +4988,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>478</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5709,14 +5021,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>478</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5748,14 +5054,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>478</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5787,14 +5087,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>478</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5826,14 +5120,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>478</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5865,14 +5153,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>478</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5904,14 +5186,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>478</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5943,14 +5219,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>478</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5982,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>478</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6021,14 +5285,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>478</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6060,14 +5318,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>478</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6099,14 +5351,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>478</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6138,14 +5384,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>478</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6177,14 +5417,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>478</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6216,14 +5450,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>478</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6255,14 +5483,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>478</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6294,14 +5516,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>478</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6333,14 +5549,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>478</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6372,14 +5582,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>478</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6411,14 +5615,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>478</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6450,14 +5648,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>478</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6489,14 +5681,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>478</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6525,23 +5711,15 @@
         <v>36439.83624825998</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>478</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>1.068221757322176</v>
-      </c>
-      <c r="M158" t="n">
-        <v>1.029850746268657</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6566,7 +5744,7 @@
         <v>35399.01434825998</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6632,7 +5810,7 @@
         <v>39020.35944825999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6698,7 +5876,7 @@
         <v>39921.33096863999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6764,7 +5942,7 @@
         <v>40170.43096863999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6797,7 +5975,7 @@
         <v>40170.43096863999</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6830,7 +6008,7 @@
         <v>41129.76576863998</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6863,7 +6041,7 @@
         <v>41229.76576863998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6896,7 +6074,7 @@
         <v>42299.87336863999</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6929,7 +6107,7 @@
         <v>45472.01113177999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6995,7 +6173,7 @@
         <v>46757.95683177999</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7094,7 +6272,7 @@
         <v>44772.29893177999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7127,7 +6305,7 @@
         <v>46009.60863177999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7160,7 +6338,7 @@
         <v>50160.24953177999</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7193,7 +6371,7 @@
         <v>59425.22856863999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7226,7 +6404,7 @@
         <v>58832.98036863999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7259,7 +6437,7 @@
         <v>58832.98036863999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7292,7 +6470,7 @@
         <v>54835.01236863999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7589,7 +6767,7 @@
         <v>53932.53179818999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7655,7 +6833,7 @@
         <v>53143.27559818999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7688,7 +6866,7 @@
         <v>51253.44729818999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7721,7 +6899,7 @@
         <v>51253.44729818999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7754,7 +6932,7 @@
         <v>48716.27749818999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7787,7 +6965,7 @@
         <v>48717.27749818999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7820,7 +6998,7 @@
         <v>43796.37399818999</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7853,7 +7031,7 @@
         <v>44907.44859818999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7886,7 +7064,7 @@
         <v>44659.41309818999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7919,7 +7097,7 @@
         <v>44668.41309818999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7952,7 +7130,7 @@
         <v>44401.60989818998</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7985,7 +7163,7 @@
         <v>43734.73279818999</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8018,7 +7196,7 @@
         <v>43734.73279818999</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8051,7 +7229,7 @@
         <v>43734.73279818999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8084,7 +7262,7 @@
         <v>44871.71659818999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8117,7 +7295,7 @@
         <v>44090.62829818999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8150,7 +7328,7 @@
         <v>44051.06169818999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8183,7 +7361,7 @@
         <v>44051.06169818999</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8216,7 +7394,7 @@
         <v>44937.53566445999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8645,7 +7823,7 @@
         <v>45630.75612144</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8678,7 +7856,7 @@
         <v>44870.88202144</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8711,7 +7889,7 @@
         <v>45159.72242144</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8744,7 +7922,7 @@
         <v>44459.72242144</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8777,7 +7955,7 @@
         <v>44101.17012143999</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8810,7 +7988,7 @@
         <v>44101.17012143999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8843,7 +8021,7 @@
         <v>45352.07032144</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8876,7 +8054,7 @@
         <v>41536.07392143999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8909,7 +8087,7 @@
         <v>41436.07392143999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8942,7 +8120,7 @@
         <v>41092.45482143999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8975,7 +8153,7 @@
         <v>44594.68942143999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9008,7 +8186,7 @@
         <v>38676.87922143999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9041,7 +8219,7 @@
         <v>34625.21532144</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9074,7 +8252,7 @@
         <v>34625.21532144</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9107,7 +8285,7 @@
         <v>34625.21532144</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9206,7 +8384,7 @@
         <v>34625.21532144</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -14024,10 +13202,14 @@
         <v>3782.688567479996</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>487</v>
+      </c>
+      <c r="J385" t="n">
+        <v>487</v>
+      </c>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
@@ -14057,11 +13239,19 @@
         <v>2820.940267479996</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>493</v>
+      </c>
+      <c r="J386" t="n">
+        <v>487</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14093,8 +13283,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>487</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14126,8 +13322,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>487</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14159,8 +13361,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>487</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14192,8 +13400,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>487</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14225,14 +13439,20 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>487</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
       <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest PPT.xlsx
+++ b/BackTest/2019-10-22 BackTest PPT.xlsx
@@ -451,7 +451,7 @@
         <v>3619.914099999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -562,9 +562,11 @@
         <v>3222.293999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>479</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -599,9 +601,11 @@
         <v>3477.605999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>473</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -636,9 +640,11 @@
         <v>3089.654999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>480</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -712,9 +718,11 @@
         <v>2947.354999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>478</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -749,9 +757,11 @@
         <v>2827.354999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>478</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -786,9 +796,11 @@
         <v>3027.354999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>474</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -823,9 +835,11 @@
         <v>3028.354999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>475</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -860,9 +874,11 @@
         <v>6012.807799999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>480</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -897,9 +913,11 @@
         <v>5905.807799999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>481</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -934,9 +952,11 @@
         <v>5905.807799999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>478</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -971,9 +991,11 @@
         <v>5955.807799999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>478</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1008,9 +1030,11 @@
         <v>5955.807799999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>480</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1156,9 +1180,11 @@
         <v>5955.807799999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>480</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1193,9 +1219,11 @@
         <v>5761.407799999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>480</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1230,9 +1258,11 @@
         <v>6328.560699999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>479</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1267,9 +1297,11 @@
         <v>6661.560699999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>480</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1452,16 +1484,18 @@
         <v>20223.0453</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
       <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1487,11 +1521,15 @@
         <v>20423.0453</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1520,11 +1558,15 @@
         <v>22987.2612</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1553,11 +1595,15 @@
         <v>23886.1228</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1586,11 +1632,15 @@
         <v>29469.5154</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1619,11 +1669,15 @@
         <v>25465.3645</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1652,11 +1706,15 @@
         <v>25672.3645</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1685,11 +1743,15 @@
         <v>25619.6933</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1718,11 +1780,15 @@
         <v>25619.6933</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1751,11 +1817,15 @@
         <v>25257.6933</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1784,11 +1854,15 @@
         <v>25511.1933</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1817,11 +1891,15 @@
         <v>24134.86369999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1854,7 +1932,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1887,7 +1969,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1920,7 +2006,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1953,7 +2043,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1986,7 +2080,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2019,7 +2117,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2052,7 +2154,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2085,7 +2191,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2118,7 +2228,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2151,7 +2265,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2184,7 +2302,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2217,7 +2339,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2250,7 +2376,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2283,7 +2413,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2316,7 +2450,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2349,7 +2487,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2382,7 +2524,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2415,7 +2561,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2448,7 +2598,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2481,7 +2635,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2510,11 +2668,15 @@
         <v>31739.11099999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2543,11 +2705,15 @@
         <v>32284.11099999999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2576,11 +2742,15 @@
         <v>31283.63959999999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2609,11 +2779,15 @@
         <v>31244.69409999999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2646,7 +2820,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2679,7 +2857,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2708,11 +2890,15 @@
         <v>24498.27749999999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2741,11 +2927,15 @@
         <v>27032.78389999999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2774,11 +2964,15 @@
         <v>25000.11789999999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2807,11 +3001,15 @@
         <v>25000.11789999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2844,7 +3042,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2877,7 +3079,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2910,7 +3116,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2943,7 +3153,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2976,7 +3190,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3009,7 +3227,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3042,7 +3264,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3075,7 +3301,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3108,7 +3338,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3141,7 +3375,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3174,7 +3412,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3207,7 +3449,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3240,7 +3486,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3273,7 +3523,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3306,7 +3560,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3339,7 +3597,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3372,7 +3634,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3405,7 +3671,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3438,7 +3708,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3471,7 +3745,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3504,7 +3782,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3537,7 +3819,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3570,7 +3856,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3603,7 +3893,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3636,7 +3930,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3669,7 +3967,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3702,7 +4004,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3735,7 +4041,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3768,7 +4078,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3801,7 +4115,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3834,7 +4152,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3867,7 +4189,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3900,7 +4226,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3933,7 +4263,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3966,7 +4300,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3999,7 +4337,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4032,7 +4374,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4065,7 +4411,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4448,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4131,7 +4485,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4164,7 +4522,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4197,7 +4559,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4230,7 +4596,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4263,7 +4633,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4296,7 +4670,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4329,7 +4707,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4362,7 +4744,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4395,7 +4781,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4428,7 +4818,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4461,7 +4855,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4494,7 +4892,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4527,7 +4929,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4560,7 +4966,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4593,7 +5003,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4626,7 +5040,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4659,7 +5077,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4692,7 +5114,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4725,7 +5151,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4758,7 +5188,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4791,7 +5225,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4824,7 +5262,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4857,7 +5299,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4890,7 +5336,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4923,7 +5373,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4956,7 +5410,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4989,7 +5447,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5022,7 +5484,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5055,7 +5521,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5088,7 +5558,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5121,7 +5595,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5154,7 +5632,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5187,7 +5669,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5220,7 +5706,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5743,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5286,7 +5780,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5319,7 +5817,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5352,7 +5854,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5385,7 +5891,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5418,7 +5928,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5451,7 +5965,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5484,7 +6002,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5513,14 +6035,16 @@
         <v>46203.40842275999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -5546,7 +6070,7 @@
         <v>44289.35002275999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5579,7 +6103,7 @@
         <v>42449.94772275999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5612,7 +6136,7 @@
         <v>42449.94772275999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5645,7 +6169,7 @@
         <v>42449.94772275999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5678,7 +6202,7 @@
         <v>36210.83624825998</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5711,7 +6235,7 @@
         <v>36439.83624825998</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5909,7 +6433,7 @@
         <v>39743.33096863999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5942,7 +6466,7 @@
         <v>40170.43096863999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6008,7 +6532,7 @@
         <v>41129.76576863998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6140,7 +6664,7 @@
         <v>43888.56693177999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6173,7 +6697,7 @@
         <v>46757.95683177999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6206,7 +6730,7 @@
         <v>46549.95683177999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6239,7 +6763,7 @@
         <v>44772.29893177999</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6272,7 +6796,7 @@
         <v>44772.29893177999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6305,7 +6829,7 @@
         <v>46009.60863177999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6338,7 +6862,7 @@
         <v>50160.24953177999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6371,7 +6895,7 @@
         <v>59425.22856863999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6404,7 +6928,7 @@
         <v>58832.98036863999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6437,7 +6961,7 @@
         <v>58832.98036863999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6470,7 +6994,7 @@
         <v>54835.01236863999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6503,7 +7027,7 @@
         <v>55363.67506863999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6536,7 +7060,7 @@
         <v>55363.67506863999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6569,7 +7093,7 @@
         <v>56318.05666863999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6602,7 +7126,7 @@
         <v>54961.91316863999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6635,7 +7159,7 @@
         <v>55079.94579818999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6668,7 +7192,7 @@
         <v>55079.94579818999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6701,7 +7225,7 @@
         <v>55079.94579818999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6734,7 +7258,7 @@
         <v>55109.38639818999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6767,7 +7291,7 @@
         <v>53932.53179818999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6800,7 +7324,7 @@
         <v>53143.27559818999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6833,7 +7357,7 @@
         <v>53143.27559818999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6866,7 +7390,7 @@
         <v>51253.44729818999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6899,7 +7423,7 @@
         <v>51253.44729818999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7031,7 +7555,7 @@
         <v>44907.44859818999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7064,7 +7588,7 @@
         <v>44659.41309818999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7097,7 +7621,7 @@
         <v>44668.41309818999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7130,7 +7654,7 @@
         <v>44401.60989818998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7163,7 +7687,7 @@
         <v>43734.73279818999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7328,7 +7852,7 @@
         <v>44051.06169818999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7460,7 +7984,7 @@
         <v>49842.33612143999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7493,7 +8017,7 @@
         <v>49842.33612143999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7559,7 +8083,7 @@
         <v>40945.70852143999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -13202,14 +13726,10 @@
         <v>3782.688567479996</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>487</v>
-      </c>
-      <c r="J385" t="n">
-        <v>487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
@@ -13239,19 +13759,11 @@
         <v>2820.940267479996</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>493</v>
-      </c>
-      <c r="J386" t="n">
-        <v>487</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13283,14 +13795,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>487</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13322,14 +13828,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>487</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13361,14 +13861,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>487</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13400,14 +13894,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>487</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13439,14 +13927,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>487</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
